--- a/database/AN_pp/expdata/3000.xlsx
+++ b/database/AN_pp/expdata/3000.xlsx
@@ -8,19 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avp5627/GIT/jam3d/database/AN_pp/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CE3864-BF68-D042-A562-B875B4AB6CCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B693F182-7C4D-DF41-89C4-D0F473B54FBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16600" yWindow="5340" windowWidth="24100" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21880" yWindow="6320" windowWidth="24100" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="16">
   <si>
     <t>xF</t>
   </si>
@@ -62,6 +72,12 @@
   </si>
   <si>
     <t>AN</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>&lt;y&gt;</t>
   </si>
 </sst>
 </file>
@@ -93,7 +109,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -165,11 +181,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -179,6 +206,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,15 +547,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="164" zoomScaleNormal="164" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="K2" sqref="K2:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -556,8 +586,14 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0.20661399999999999</v>
       </c>
@@ -588,8 +624,16 @@
       <c r="J2" t="s">
         <v>13</v>
       </c>
+      <c r="K2">
+        <f>ASINH(A2*F2/(2*E2))</f>
+        <v>2.8942630473866031</v>
+      </c>
+      <c r="L2">
+        <f>AVERAGE(K1:K10)</f>
+        <v>3.2968933902592088</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.254635</v>
       </c>
@@ -620,8 +664,12 @@
       <c r="J3" t="s">
         <v>13</v>
       </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K10" si="0">ASINH(A3*F3/(2*E3))</f>
+        <v>2.9179067327456867</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.30248900000000001</v>
       </c>
@@ -652,8 +700,12 @@
       <c r="J4" t="s">
         <v>13</v>
       </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>3.004108961445124</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.35272999999999999</v>
       </c>
@@ -684,8 +736,12 @@
       <c r="J5" t="s">
         <v>13</v>
       </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>3.1524564027608961</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.40306700000000001</v>
       </c>
@@ -716,8 +772,12 @@
       <c r="J6" t="s">
         <v>13</v>
       </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>3.3370803118766093</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.45335500000000001</v>
       </c>
@@ -748,8 +808,12 @@
       <c r="J7" t="s">
         <v>13</v>
       </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>3.4828786922168358</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.503471</v>
       </c>
@@ -780,8 +844,12 @@
       <c r="J8" t="s">
         <v>13</v>
       </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>3.5826386581929115</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.55291000000000001</v>
       </c>
@@ -812,8 +880,12 @@
       <c r="J9" t="s">
         <v>13</v>
       </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>3.6423467655647754</v>
+      </c>
     </row>
-    <row r="10" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>0.61033599999999999</v>
       </c>
@@ -843,6 +915,10 @@
       </c>
       <c r="J10" t="s">
         <v>13</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>3.6583609401434387</v>
       </c>
     </row>
   </sheetData>

--- a/database/AN_pp/expdata/3000.xlsx
+++ b/database/AN_pp/expdata/3000.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avp5627/GIT/jam3d/database/AN_pp/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B693F182-7C4D-DF41-89C4-D0F473B54FBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C58D691-73A1-014F-B2D6-41056F89B0AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21880" yWindow="6320" windowWidth="24100" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21880" yWindow="6320" windowWidth="27280" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="18">
   <si>
     <t>xF</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>&lt;y&gt;</t>
+  </si>
+  <si>
+    <t>xfmin</t>
+  </si>
+  <si>
+    <t>xfmax</t>
   </si>
 </sst>
 </file>
@@ -196,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -209,6 +215,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,15 +556,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="164" zoomScaleNormal="164" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K10"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -592,8 +601,14 @@
       <c r="L1" s="7" t="s">
         <v>15</v>
       </c>
+      <c r="M1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0.20661399999999999</v>
       </c>
@@ -632,8 +647,14 @@
         <f>AVERAGE(K1:K10)</f>
         <v>3.2968933902592088</v>
       </c>
+      <c r="M2" s="8">
+        <v>0.18</v>
+      </c>
+      <c r="N2">
+        <v>0.23</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.254635</v>
       </c>
@@ -668,8 +689,14 @@
         <f t="shared" ref="K3:K10" si="0">ASINH(A3*F3/(2*E3))</f>
         <v>2.9179067327456867</v>
       </c>
+      <c r="M3" s="9">
+        <v>0.23</v>
+      </c>
+      <c r="N3">
+        <v>0.28000000000000003</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.30248900000000001</v>
       </c>
@@ -704,8 +731,14 @@
         <f t="shared" si="0"/>
         <v>3.004108961445124</v>
       </c>
+      <c r="M4" s="9">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N4">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.35272999999999999</v>
       </c>
@@ -740,8 +773,14 @@
         <f t="shared" si="0"/>
         <v>3.1524564027608961</v>
       </c>
+      <c r="M5" s="9">
+        <v>0.33</v>
+      </c>
+      <c r="N5">
+        <v>0.38</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.40306700000000001</v>
       </c>
@@ -776,8 +815,14 @@
         <f t="shared" si="0"/>
         <v>3.3370803118766093</v>
       </c>
+      <c r="M6" s="9">
+        <v>0.38</v>
+      </c>
+      <c r="N6">
+        <v>0.43</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.45335500000000001</v>
       </c>
@@ -812,8 +857,14 @@
         <f t="shared" si="0"/>
         <v>3.4828786922168358</v>
       </c>
+      <c r="M7" s="9">
+        <v>0.43</v>
+      </c>
+      <c r="N7">
+        <v>0.48</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.503471</v>
       </c>
@@ -848,8 +899,14 @@
         <f t="shared" si="0"/>
         <v>3.5826386581929115</v>
       </c>
+      <c r="M8" s="9">
+        <v>0.48</v>
+      </c>
+      <c r="N8">
+        <v>0.53</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.55291000000000001</v>
       </c>
@@ -884,8 +941,14 @@
         <f t="shared" si="0"/>
         <v>3.6423467655647754</v>
       </c>
+      <c r="M9" s="9">
+        <v>0.53</v>
+      </c>
+      <c r="N9">
+        <v>0.57999999999999996</v>
+      </c>
     </row>
-    <row r="10" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>0.61033599999999999</v>
       </c>
@@ -919,6 +982,12 @@
       <c r="K10">
         <f t="shared" si="0"/>
         <v>3.6583609401434387</v>
+      </c>
+      <c r="M10" s="10">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="N10">
+        <v>0.65</v>
       </c>
     </row>
   </sheetData>

--- a/database/AN_pp/expdata/3000.xlsx
+++ b/database/AN_pp/expdata/3000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avp5627/GIT/jam3d/database/AN_pp/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C58D691-73A1-014F-B2D6-41056F89B0AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08FEB74-684A-DB4D-9494-BD3DCFA32E5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21880" yWindow="6320" windowWidth="27280" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="19">
   <si>
     <t>xF</t>
   </si>
@@ -84,13 +84,16 @@
   </si>
   <si>
     <t>xfmax</t>
+  </si>
+  <si>
+    <t>Dependence</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +108,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -202,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -218,6 +229,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,15 +570,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="164" zoomScaleNormal="164" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="O2" sqref="O2:O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -607,8 +621,11 @@
       <c r="N1" s="7" t="s">
         <v>17</v>
       </c>
+      <c r="O1" s="11" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0.20661399999999999</v>
       </c>
@@ -653,8 +670,11 @@
       <c r="N2">
         <v>0.23</v>
       </c>
+      <c r="O2" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.254635</v>
       </c>
@@ -695,8 +715,11 @@
       <c r="N3">
         <v>0.28000000000000003</v>
       </c>
+      <c r="O3" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.30248900000000001</v>
       </c>
@@ -737,8 +760,11 @@
       <c r="N4">
         <v>0.33</v>
       </c>
+      <c r="O4" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.35272999999999999</v>
       </c>
@@ -779,8 +805,11 @@
       <c r="N5">
         <v>0.38</v>
       </c>
+      <c r="O5" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.40306700000000001</v>
       </c>
@@ -821,8 +850,11 @@
       <c r="N6">
         <v>0.43</v>
       </c>
+      <c r="O6" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.45335500000000001</v>
       </c>
@@ -863,8 +895,11 @@
       <c r="N7">
         <v>0.48</v>
       </c>
+      <c r="O7" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.503471</v>
       </c>
@@ -905,8 +940,11 @@
       <c r="N8">
         <v>0.53</v>
       </c>
+      <c r="O8" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.55291000000000001</v>
       </c>
@@ -947,8 +985,11 @@
       <c r="N9">
         <v>0.57999999999999996</v>
       </c>
+      <c r="O9" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>0.61033599999999999</v>
       </c>
@@ -988,6 +1029,9 @@
       </c>
       <c r="N10">
         <v>0.65</v>
+      </c>
+      <c r="O10" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
